--- a/image/immunizationevaluation.xlsx
+++ b/image/immunizationevaluation.xlsx
@@ -714,45 +714,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.4921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="92.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.5" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="92.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.14453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.72265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="37.32421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="34.94140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/immunizationevaluation.xlsx
+++ b/image/immunizationevaluation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="179">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -516,10 +516,6 @@
   </si>
   <si>
     <t>ImmunizationEvaluation.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Evaluation notes</t>
@@ -714,45 +710,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.72265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.4921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="92.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.14453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="92.1875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.5" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="34.94140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.32421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2877,13 +2873,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2949,10 +2945,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -2963,7 +2959,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2986,13 +2982,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3043,7 +3039,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3072,7 +3068,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3095,16 +3091,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3154,7 +3150,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3172,7 +3168,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3183,7 +3179,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3206,16 +3202,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3265,7 +3261,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3283,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
